--- a/GANTT CHART.xlsx
+++ b/GANTT CHART.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2-2 SEMESTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD81A0-3DC2-41AA-81AD-948ED33BCECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B136CB8F-FAB4-4A55-92C5-42F89CB44031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{085A25CC-7E57-414B-9A26-A8309ADFEB49}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>WEEK 1</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>SPL-2 PROJECT TIMELINE ESTIMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PLANNING</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -289,13 +292,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +382,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -366,16 +405,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFA963C"/>
+      <color rgb="FFFFA3C4"/>
       <color rgb="FFF4EE6C"/>
       <color rgb="FF990099"/>
       <color rgb="FFF771F7"/>
       <color rgb="FFFF81AE"/>
-      <color rgb="FFFFA3C4"/>
       <color rgb="FFF1413D"/>
       <color rgb="FFFE7C00"/>
       <color rgb="FFFFD832"/>
       <color rgb="FFFF5E97"/>
-      <color rgb="FF0269A4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -393,15 +432,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>40602</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>548639</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>259868</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -417,17 +456,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2433282" y="2827020"/>
-          <a:ext cx="1711997" cy="237008"/>
+          <a:off x="3619500" y="3086100"/>
+          <a:ext cx="1668780" cy="221768"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="95000"/>
-            <a:lumOff val="5000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFA3C4"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -460,16 +496,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>251460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -484,7 +520,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2461260" y="3162300"/>
+          <a:off x="3604260" y="3375660"/>
           <a:ext cx="1676400" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -529,13 +565,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>586739</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -593,13 +629,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>34739</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>34254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>259079</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -622,9 +658,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FA963C"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -659,13 +693,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>42608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>586739</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -724,14 +758,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>266699</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -747,8 +781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6576060" y="4358640"/>
-          <a:ext cx="1767840" cy="243839"/>
+          <a:off x="6522720" y="4602480"/>
+          <a:ext cx="1821180" cy="236219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -789,13 +823,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>32982</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>281940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -853,13 +887,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>29566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>274319</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -883,6 +917,70 @@
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F175D5-7DAC-4A71-B8C5-FE230B13000B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2392680" y="2834640"/>
+          <a:ext cx="1181100" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1269,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB7293B-441F-4913-B492-B3A6DF53C192}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.3"/>
@@ -1497,7 +1595,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1515,286 +1613,288 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
+      <c r="B13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
-      <c r="B18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="B18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="16"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="B19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="16"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="C23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1810,7 +1910,25 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:17" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B4:F5"/>
